--- a/gradesScatterPlot.xlsx
+++ b/gradesScatterPlot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="7860" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="7860" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="term1A" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="term2B" sheetId="6" r:id="rId6"/>
     <sheet name="coursesII" sheetId="7" r:id="rId7"/>
     <sheet name="term3B" sheetId="8" r:id="rId8"/>
+    <sheet name="term3A" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>Course Name</t>
   </si>
@@ -143,6 +144,21 @@
   </si>
   <si>
     <t>ELEC 370</t>
+  </si>
+  <si>
+    <t>ELEC 300</t>
+  </si>
+  <si>
+    <t>ELEC 320</t>
+  </si>
+  <si>
+    <t>ELEC 330</t>
+  </si>
+  <si>
+    <t>ELEC 340</t>
+  </si>
+  <si>
+    <t>ELEC 460</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1624,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>81</v>
+      </c>
+      <c r="D2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <v>85</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>86</v>
+      </c>
+      <c r="D4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1630,72 +1745,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C3">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C4">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C6">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D6">
-        <v>127</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
